--- a/specsMalawiClusters.xlsx
+++ b/specsMalawiClusters.xlsx
@@ -642,10 +642,10 @@
         <v>0.16</v>
       </c>
       <c r="G2">
-        <v>3853.965209884599</v>
+        <v>7380.591823787947</v>
       </c>
       <c r="H2">
-        <v>0.5322498550574938</v>
+        <v>0.1599528647816048</v>
       </c>
       <c r="I2">
         <v>26578247</v>
@@ -720,10 +720,10 @@
         <v>0.487</v>
       </c>
       <c r="AM2">
-        <v>0.1411194985930556</v>
+        <v>0.09347275317541197</v>
       </c>
       <c r="AN2">
-        <v>0.2870245518250245</v>
+        <v>1.271773172644262</v>
       </c>
     </row>
   </sheetData>
